--- a/tables/stage4Key.xlsx
+++ b/tables/stage4Key.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kolczynski.s/dev/Cubic/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{386145FB-3A9D-3D4D-8905-2EE54CB7C7D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8220CE16-27B6-8141-ADCD-5D61F566E5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19080" yWindow="0" windowWidth="19080" windowHeight="21600" xr2:uid="{F8D0506F-6742-874F-8E7A-EACA7D99C1A5}"/>
+    <workbookView xWindow="-16800" yWindow="0" windowWidth="16800" windowHeight="21600" xr2:uid="{F8D0506F-6742-874F-8E7A-EACA7D99C1A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="68">
   <si>
     <t>(12)</t>
   </si>
@@ -157,14 +157,103 @@
   </si>
   <si>
     <t>(124)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>(12)(34)</t>
+  </si>
+  <si>
+    <t>(13)(24)</t>
+  </si>
+  <si>
+    <t>(14)(23)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -192,9 +281,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,8 +602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABDC976-A685-3747-926D-18F7EFA3534A}">
   <dimension ref="A1:BD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,6 +633,7 @@
     <col min="24" max="24" width="4.33203125" customWidth="1"/>
     <col min="25" max="25" width="3.5" customWidth="1"/>
     <col min="26" max="27" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.2">
@@ -596,11 +689,11 @@
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -701,11 +794,11 @@
         <v>30</v>
       </c>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
@@ -808,11 +901,23 @@
         <v>30</v>
       </c>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
+      <c r="AC4" s="3" t="str">
+        <f>_xlfn.CONCAT(B4:I4)</f>
+        <v>LDLURDRU</v>
+      </c>
+      <c r="AD4" s="3" t="str">
+        <f>_xlfn.CONCAT(K4:R4)</f>
+        <v>LFLBRFRB</v>
+      </c>
+      <c r="AE4" s="3" t="str">
+        <f>_xlfn.CONCAT(T4:AA4)</f>
+        <v>FDFUBDBU</v>
+      </c>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3" t="str">
+        <f>_xlfn.CONCAT(AC4:AE4)</f>
+        <v>LDLURDRULFLBRFRBFDFUBDBU</v>
+      </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -916,11 +1021,23 @@
         <v>30</v>
       </c>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
+      <c r="AC5" s="3" t="str">
+        <f t="shared" ref="AC5:AC29" si="0">_xlfn.CONCAT(B5:I5)</f>
+        <v>LDRDLURU</v>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <f t="shared" ref="AD5:AD29" si="1">_xlfn.CONCAT(K5:R5)</f>
+        <v>LFRFLBRB</v>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f t="shared" ref="AE5:AE29" si="2">_xlfn.CONCAT(T5:AA5)</f>
+        <v>FDBDFUBU</v>
+      </c>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3" t="str">
+        <f>_xlfn.CONCAT(AC5:AE5)</f>
+        <v>LDRDLURULFRFLBRBFDBDFUBU</v>
+      </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
@@ -1024,11 +1141,23 @@
         <v>30</v>
       </c>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
+      <c r="AC6" s="3" t="str">
+        <f>_xlfn.CONCAT(B6:I6)</f>
+        <v>LDRDRULU</v>
+      </c>
+      <c r="AD6" s="3" t="str">
+        <f>_xlfn.CONCAT(K6:R6)</f>
+        <v>LFRFRBLB</v>
+      </c>
+      <c r="AE6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>FDBDBUFU</v>
+      </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3" t="str">
+        <f t="shared" ref="AG6:AG29" si="3">_xlfn.CONCAT(AC6:AE6)</f>
+        <v>LDRDRULULFRFRBLBFDBDBUFU</v>
+      </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
@@ -1132,11 +1261,23 @@
         <v>30</v>
       </c>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
+      <c r="AC7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LDRURDLU</v>
+      </c>
+      <c r="AD7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>LFRBRFLB</v>
+      </c>
+      <c r="AE7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>FDBUBDFU</v>
+      </c>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LDRURDLULFRBRFLBFDBUBDFU</v>
+      </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
@@ -1190,11 +1331,23 @@
         <v>34</v>
       </c>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
+      <c r="AC8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>LFRBLBRF</v>
+      </c>
+      <c r="AE8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LFRBLBRF</v>
+      </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
@@ -1298,11 +1451,23 @@
         <v>30</v>
       </c>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
+      <c r="AC9" s="3" t="str">
+        <f>_xlfn.CONCAT(B9:I9)</f>
+        <v>RDLDLURU</v>
+      </c>
+      <c r="AD9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>RFLFLBRB</v>
+      </c>
+      <c r="AE9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BDFDFUBU</v>
+      </c>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RDLDLURURFLFLBRBBDFDFUBU</v>
+      </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -1406,11 +1571,23 @@
         <v>30</v>
       </c>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
+      <c r="AC10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RDLULDRU</v>
+      </c>
+      <c r="AD10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>RFLBRFRB</v>
+      </c>
+      <c r="AE10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BDFUFDBU</v>
+      </c>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RDLULDRURFLBRFRBBDFUFDBU</v>
+      </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
@@ -1514,11 +1691,23 @@
         <v>30</v>
       </c>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
+      <c r="AC11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RDRULDLU</v>
+      </c>
+      <c r="AD11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>RFRBLFLB</v>
+      </c>
+      <c r="AE11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BDBUFDFU</v>
+      </c>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RDRULDLURFRBLFLBBDBUFDFU</v>
+      </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -1622,11 +1811,23 @@
         <v>30</v>
       </c>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
+      <c r="AC12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RDLDRULU</v>
+      </c>
+      <c r="AD12" s="3" t="str">
+        <f>_xlfn.CONCAT(K12:R12)</f>
+        <v>RFLFRBLB</v>
+      </c>
+      <c r="AE12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BDFDBUFU</v>
+      </c>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RDLDRULURFLFRBLBBDFDBUFU</v>
+      </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -1730,11 +1931,23 @@
         <v>31</v>
       </c>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
+      <c r="AC13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RDLURULD</v>
+      </c>
+      <c r="AD13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>RFLBRBLF</v>
+      </c>
+      <c r="AE13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BDFUBUFD</v>
+      </c>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RDLURULDRFLBRBLFBDFUBUFD</v>
+      </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
@@ -1838,11 +2051,23 @@
         <v>30</v>
       </c>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
+      <c r="AC14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RULDRDLU</v>
+      </c>
+      <c r="AD14" s="3" t="str">
+        <f>_xlfn.CONCAT(K14:R14)</f>
+        <v>RBLFRFLB</v>
+      </c>
+      <c r="AE14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BUFDBDFU</v>
+      </c>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RULDRDLURBLFRFLBBUFDBDFU</v>
+      </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
@@ -1946,11 +2171,23 @@
         <v>31</v>
       </c>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
+      <c r="AC15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RULURDLD</v>
+      </c>
+      <c r="AD15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>RBLBRFLF</v>
+      </c>
+      <c r="AE15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BUFUBDFD</v>
+      </c>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RULURDLDRBLBRFLFBUFUBDFD</v>
+      </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
@@ -2054,11 +2291,23 @@
         <v>31</v>
       </c>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
+      <c r="AC16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RURDLULD</v>
+      </c>
+      <c r="AD16" s="3" t="str">
+        <f>_xlfn.CONCAT(K16:R16)</f>
+        <v>RBRFLBLF</v>
+      </c>
+      <c r="AE16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BUBDFUFD</v>
+      </c>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RURDLULDRBRFLBLFBUBDFUFD</v>
+      </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -2162,11 +2411,23 @@
         <v>31</v>
       </c>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
+      <c r="AC17" s="3" t="str">
+        <f>_xlfn.CONCAT(B17:I17)</f>
+        <v>RULDLURD</v>
+      </c>
+      <c r="AD17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>RBLFLBRF</v>
+      </c>
+      <c r="AE17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BUFDFUBD</v>
+      </c>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RULDLURDRBLFLBRFBUFDFUBD</v>
+      </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -2270,11 +2531,23 @@
         <v>31</v>
       </c>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+      <c r="AC18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RULULDRD</v>
+      </c>
+      <c r="AD18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>RBLBLFRF</v>
+      </c>
+      <c r="AE18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BUFUFDBD</v>
+      </c>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RULULDRDRBLBLFRFBUFUFDBD</v>
+      </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -2378,11 +2651,23 @@
         <v>30</v>
       </c>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
+      <c r="AC19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LURDLDRU</v>
+      </c>
+      <c r="AD19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>LBRFLFRB</v>
+      </c>
+      <c r="AE19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>FUBDFDBU</v>
+      </c>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LURDLDRULBRFLFRBFUBDFDBU</v>
+      </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
@@ -2486,11 +2771,23 @@
         <v>31</v>
       </c>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
+      <c r="AC20" s="3" t="str">
+        <f>_xlfn.CONCAT(B20:I20)</f>
+        <v>LURDRULU</v>
+      </c>
+      <c r="AD20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>LBRFRBLF</v>
+      </c>
+      <c r="AE20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>FUBDBUFD</v>
+      </c>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LURDRULULBRFRBLFFUBDBUFD</v>
+      </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
@@ -2551,22 +2848,22 @@
         <v>33</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1" t="s">
@@ -2594,11 +2891,23 @@
         <v>31</v>
       </c>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
+      <c r="AC21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LURURDLD</v>
+      </c>
+      <c r="AD21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>LBRBRFLF</v>
+      </c>
+      <c r="AE21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>FUBUBDFD</v>
+      </c>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LURURDLDLBRBRFLFFUBUBDFD</v>
+      </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -2702,11 +3011,23 @@
         <v>31</v>
       </c>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
+      <c r="AC22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LURULDRD</v>
+      </c>
+      <c r="AD22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>LBRBLFRF</v>
+      </c>
+      <c r="AE22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>FUBUFDBD</v>
+      </c>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LURULDRDLBRBLFRFFUBUFDBD</v>
+      </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
@@ -2810,11 +3131,23 @@
         <v>31</v>
       </c>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
+      <c r="AC23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LULDRURD</v>
+      </c>
+      <c r="AD23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>LBLFRBRF</v>
+      </c>
+      <c r="AE23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>FUFDBUBD</v>
+      </c>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LULDRURDLBLFRBRFFUFDBUBD</v>
+      </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -2868,11 +3201,23 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
+      <c r="AC24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AE24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
@@ -2899,38 +3244,98 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
+      <c r="T25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
+      <c r="AC25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>01234567</v>
+      </c>
+      <c r="AD25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>89101112131415</v>
+      </c>
+      <c r="AE25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1617181920212223</v>
+      </c>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>01234567891011121314151617181920212223</v>
+      </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -2984,11 +3389,23 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
+      <c r="AC26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AE26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
+      <c r="AG26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -3014,39 +3431,125 @@
       <c r="BD26" s="1"/>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>B4</f>
+        <v>L</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" ref="C27:E27" si="4">C4</f>
+        <v>D</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>U</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>F23</f>
+        <v>R</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" ref="G27:AA27" si="5">G23</f>
+        <v>U</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="K27" s="1" t="str">
+        <f>K4</f>
+        <v>L</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" ref="L27:N27" si="6">L4</f>
+        <v>F</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>L</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="R27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
       <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="T27" s="1" t="str">
+        <f>T4</f>
+        <v>F</v>
+      </c>
+      <c r="U27" s="1" t="str">
+        <f t="shared" ref="U27:W27" si="7">U4</f>
+        <v>D</v>
+      </c>
+      <c r="V27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="W27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>U</v>
+      </c>
+      <c r="X27" s="1" t="str">
+        <f>X23</f>
+        <v>B</v>
+      </c>
+      <c r="Y27" s="1" t="str">
+        <f t="shared" ref="Y27:AA27" si="8">Y23</f>
+        <v>U</v>
+      </c>
+      <c r="Z27" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="AA27" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>D</v>
+      </c>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
+      <c r="AC27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LDLURURD</v>
+      </c>
+      <c r="AD27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>LFLBRBRF</v>
+      </c>
+      <c r="AE27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>FDFUBUBD</v>
+      </c>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
+      <c r="AG27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>LDLURURDLFLBRBRFFDFUBUBD</v>
+      </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -3072,39 +3575,103 @@
       <c r="BD27" s="1"/>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>B9</f>
+        <v>R</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>C9</f>
+        <v>D</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
+      <c r="AC28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RDRULULD</v>
+      </c>
+      <c r="AD28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>RFRBLBLF</v>
+      </c>
+      <c r="AE28" s="3" t="str">
+        <f>_xlfn.CONCAT(T28:AA28)</f>
+        <v>BDBUFUFD</v>
+      </c>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
+      <c r="AG28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RDRULULDRFRBLBLFBDBUFUFD</v>
+      </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
@@ -3130,39 +3697,101 @@
       <c r="BD28" s="1"/>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
+      <c r="AC29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RURDLDLU</v>
+      </c>
+      <c r="AD29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>RBRFLFLB</v>
+      </c>
+      <c r="AE29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>BUBDFDFU</v>
+      </c>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
+      <c r="AG29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>RURDLDLURBRFLFLBBUBDFDFU</v>
+      </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
@@ -3189,32 +3818,32 @@
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
@@ -3247,32 +3876,32 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
@@ -3305,32 +3934,32 @@
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
@@ -3363,32 +3992,32 @@
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
@@ -3421,32 +4050,32 @@
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
@@ -3479,32 +4108,32 @@
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
@@ -5454,5 +6083,6 @@
     <sortCondition ref="A4:A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>